--- a/GATEWAY/A1#111#MEDIANETSERVIZISRLX1/MedianetServizi/4Handy.it/2025/accreditamento-checklist_V8.2.3.xlsx
+++ b/GATEWAY/A1#111#MEDIANETSERVIZISRLX1/MedianetServizi/4Handy.it/2025/accreditamento-checklist_V8.2.3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nosse\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nosse\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B9D73E-016F-480F-B300-DF63990ACF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167115C0-145D-4C33-A768-1FB72CA54A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Summary!$A$1:$G$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$31</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="170">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -668,6 +668,100 @@
   </si>
   <si>
     <t>subject_application_version: 2025</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_PSS_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_PSS_KO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Precondizioni</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:
+Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Descrizione di Business del caso di test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Precondizioni</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:
+Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Descrizione di Business del caso di test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1102,7 +1196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1224,6 +1318,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2667,13 +2779,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:W604"/>
+  <dimension ref="A1:W607"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3845,7 +3957,7 @@
     </row>
     <row r="29" spans="1:23" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="31">
-        <v>445</v>
+        <v>38</v>
       </c>
       <c r="B29" s="31" t="s">
         <v>34</v>
@@ -3854,27 +3966,21 @@
         <v>43</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" s="33">
-        <v>45708</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="H29" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="I29" s="37" t="s">
-        <v>161</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="37"/>
       <c r="J29" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="K29" s="29"/>
+        <v>83</v>
+      </c>
+      <c r="K29" s="29" t="s">
+        <v>91</v>
+      </c>
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
       <c r="N29" s="29"/>
@@ -3883,74 +3989,125 @@
       <c r="Q29" s="29"/>
       <c r="R29" s="29"/>
       <c r="S29" s="29"/>
-      <c r="T29" s="29" t="s">
-        <v>81</v>
-      </c>
+      <c r="T29" s="29"/>
       <c r="U29" s="34"/>
       <c r="V29" s="35"/>
-      <c r="W29" s="29" t="s">
+      <c r="W29" s="29"/>
+    </row>
+    <row r="30" spans="1:23" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="31">
+        <v>30</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="31">
+        <v>445</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="33">
+        <v>45708</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="I31" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="J31" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="U31" s="34"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="9"/>
-    </row>
-    <row r="31" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="9"/>
-    </row>
-    <row r="32" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="9"/>
+    <row r="32" spans="1:23" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="53"/>
     </row>
     <row r="33" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F33" s="6"/>
@@ -6953,13 +7110,64 @@
       <c r="W182" s="9"/>
     </row>
     <row r="183" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W183" s="7"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
+      <c r="I183" s="6"/>
+      <c r="J183" s="7"/>
+      <c r="K183" s="7"/>
+      <c r="L183" s="7"/>
+      <c r="M183" s="7"/>
+      <c r="N183" s="7"/>
+      <c r="O183" s="7"/>
+      <c r="P183" s="7"/>
+      <c r="Q183" s="7"/>
+      <c r="R183" s="7"/>
+      <c r="S183" s="7"/>
+      <c r="T183" s="7"/>
+      <c r="U183" s="8"/>
+      <c r="V183" s="2"/>
+      <c r="W183" s="9"/>
     </row>
     <row r="184" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W184" s="7"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
+      <c r="I184" s="6"/>
+      <c r="J184" s="7"/>
+      <c r="K184" s="7"/>
+      <c r="L184" s="7"/>
+      <c r="M184" s="7"/>
+      <c r="N184" s="7"/>
+      <c r="O184" s="7"/>
+      <c r="P184" s="7"/>
+      <c r="Q184" s="7"/>
+      <c r="R184" s="7"/>
+      <c r="S184" s="7"/>
+      <c r="T184" s="7"/>
+      <c r="U184" s="8"/>
+      <c r="V184" s="2"/>
+      <c r="W184" s="9"/>
     </row>
     <row r="185" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W185" s="7"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
+      <c r="I185" s="6"/>
+      <c r="J185" s="7"/>
+      <c r="K185" s="7"/>
+      <c r="L185" s="7"/>
+      <c r="M185" s="7"/>
+      <c r="N185" s="7"/>
+      <c r="O185" s="7"/>
+      <c r="P185" s="7"/>
+      <c r="Q185" s="7"/>
+      <c r="R185" s="7"/>
+      <c r="S185" s="7"/>
+      <c r="T185" s="7"/>
+      <c r="U185" s="8"/>
+      <c r="V185" s="2"/>
+      <c r="W185" s="9"/>
     </row>
     <row r="186" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W186" s="7"/>
@@ -8203,13 +8411,22 @@
     <row r="599" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W599" s="7"/>
     </row>
-    <row r="600" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W600" s="7"/>
+    </row>
+    <row r="601" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W601" s="7"/>
+    </row>
+    <row r="602" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W602" s="7"/>
+    </row>
     <row r="603" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="604" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A9:W29" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A9:W31" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -8230,19 +8447,19 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J11:J29 M11:N29 P11:R29</xm:sqref>
+          <xm:sqref>J11:J32 M11:N32 P11:R32</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{70793024-27E9-4E6A-BACD-083AB683BC38}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>T11:T29</xm:sqref>
+          <xm:sqref>T11:T32</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3DE61C5E-9DA3-4CE3-A1FF-8FBE651EA6B5}">
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K10:K29</xm:sqref>
+          <xm:sqref>K10:K32</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10661,6 +10878,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca719f03-9e45-4ef4-9920-d156f53157f2">
@@ -10668,15 +10894,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10698,6 +10915,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -10715,14 +10940,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111#MEDIANETSERVIZISRLX1/MedianetServizi/4Handy.it/2025/accreditamento-checklist_V8.2.3.xlsx
+++ b/GATEWAY/A1#111#MEDIANETSERVIZISRLX1/MedianetServizi/4Handy.it/2025/accreditamento-checklist_V8.2.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nosse\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167115C0-145D-4C33-A768-1FB72CA54A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524B7E1E-B2D1-41F3-9690-D02CC63D8E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="170">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1196,7 +1196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1298,6 +1298,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1318,24 +1327,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2782,10 +2773,10 @@
   <dimension ref="A1:W607"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="O28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomRight" activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2827,12 +2818,12 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="44"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -2853,14 +2844,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="49" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="41"/>
+      <c r="D3" s="44"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -2881,12 +2872,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="49" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -2908,12 +2899,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="41"/>
+      <c r="D5" s="44"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -2934,8 +2925,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3992,7 +3983,9 @@
       <c r="T29" s="29"/>
       <c r="U29" s="34"/>
       <c r="V29" s="35"/>
-      <c r="W29" s="29"/>
+      <c r="W29" s="29" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="30" spans="1:23" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31">
@@ -4085,29 +4078,29 @@
       </c>
     </row>
     <row r="32" spans="1:23" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="53"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="9"/>
     </row>
     <row r="33" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F33" s="6"/>
@@ -10706,6 +10699,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca719f03-9e45-4ef4-9920-d156f53157f2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F560B38A5B3C4B41B1895754B1F1A56A" ma:contentTypeVersion="9" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="69dc0f489d46816a4b9bb4a327e14425">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca719f03-9e45-4ef4-9920-d156f53157f2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7de9a44ff87fdcabda187bbd662e75de" ns2:_="">
     <xsd:import namespace="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
@@ -10877,26 +10889,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca719f03-9e45-4ef4-9920-d156f53157f2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61CEF28A-E0A2-4D9D-9130-F7D0F35034F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10914,32 +10933,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
